--- a/data/trans_orig/Q24D_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.0212135693766</v>
+        <v>2.004617311190378</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.527360211051849</v>
+        <v>2.515212446947179</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.087241484500705</v>
+        <v>2.120410309495218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.082435932598444</v>
+        <v>2.027723384469652</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.561784672978038</v>
+        <v>1.560212349295384</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.450187779031078</v>
+        <v>2.402951126896016</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.096333154976775</v>
+        <v>2.092042952384057</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.108915586907253</v>
+        <v>2.098648478187479</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.969039200286067</v>
+        <v>1.971319808141711</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.556302232320479</v>
+        <v>2.598143232220448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.1965808067917</v>
+        <v>2.188735443278675</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.14314861501947</v>
+        <v>2.145674957204969</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.276034649002167</v>
+        <v>3.301381388126678</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.486541576105677</v>
+        <v>3.463838125249338</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.906802628059189</v>
+        <v>2.970734137751156</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.699818154877009</v>
+        <v>2.676210601423708</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.147788501463562</v>
+        <v>2.166359537861531</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.81003702870841</v>
+        <v>3.671842728305009</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.16819368331397</v>
+        <v>3.120376133001792</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.780208261709125</v>
+        <v>2.752599262093412</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.900383479453979</v>
+        <v>2.917695059154616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.369423370162397</v>
+        <v>3.401470344502008</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.844043529358713</v>
+        <v>2.851622575806445</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.618076894069988</v>
+        <v>2.603514506509156</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.238762397029769</v>
+        <v>2.28302049801204</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.23919338457363</v>
+        <v>2.231577769682083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.212405318514736</v>
+        <v>2.192609878621442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.460909998957619</v>
+        <v>2.478093525229401</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.951233046811211</v>
+        <v>1.943515576285641</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.259633004943775</v>
+        <v>2.279376707083506</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.401338236943819</v>
+        <v>2.406136967064962</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.331182051334874</v>
+        <v>2.32261976314405</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.222824104520292</v>
+        <v>2.228896909645533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.337028778832371</v>
+        <v>2.332592891859742</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2.36557735475321</v>
+        <v>2.372116812068354</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.556280004828082</v>
+        <v>2.577216261857498</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.741647552386839</v>
+        <v>3.780601526901437</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.563600756690777</v>
+        <v>3.670227907641852</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.793570062700002</v>
+        <v>2.798600911789572</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.86042856098222</v>
+        <v>4.757239611957317</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.596123202540589</v>
+        <v>2.567927323952188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.869132342467076</v>
+        <v>2.891871443753561</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.490105527472176</v>
+        <v>3.59460333403192</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.392893553336527</v>
+        <v>3.347931175050829</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.10562779604139</v>
+        <v>3.154075500898826</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.21199224460559</v>
+        <v>3.145481603522343</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.993628669127224</v>
+        <v>3.011722055412287</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.792807547721841</v>
+        <v>3.731731061241574</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>2.600329286146476</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.681355202640486</v>
+        <v>3.681355202640483</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.511893144209467</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.817200159394369</v>
+        <v>2.805741200640168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.557901117101774</v>
+        <v>2.597282506572632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.192313803177825</v>
+        <v>2.190121439164283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.607313420439155</v>
+        <v>2.589926459759885</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.127232385564592</v>
+        <v>2.154347013066505</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.962315393298607</v>
+        <v>1.968652182718416</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.757793022830265</v>
+        <v>1.754283172799444</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.262630835112168</v>
+        <v>2.282135076208177</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.646389086576961</v>
+        <v>2.665009417010067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.364237795483237</v>
+        <v>2.382441760575391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.09945456252213</v>
+        <v>2.122907434458402</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.568919106886083</v>
+        <v>2.570764485231904</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.069297834080219</v>
+        <v>5.107714505267195</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.376067490428097</v>
+        <v>3.433664880201884</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.346403778574667</v>
+        <v>3.307652559950435</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.288098026230498</v>
+        <v>6.761627985368539</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.10620266022738</v>
+        <v>3.098208996691219</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.48855811662541</v>
+        <v>2.532783044310464</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.335767074923493</v>
+        <v>2.333787507279202</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.093430207496119</v>
+        <v>3.132387416648623</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.055063487107188</v>
+        <v>4.030754992733586</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.885599976329604</v>
+        <v>2.906340522195018</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.851258489164785</v>
+        <v>2.804013384470188</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>5.069314898950644</v>
+        <v>4.933918229580442</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>2.434021685338463</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>3.181466321872731</v>
+        <v>3.18146632187273</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>2.208236690575964</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.043192019937128</v>
+        <v>2.011143898709867</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.131642973300725</v>
+        <v>2.121190995097497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.376951662838493</v>
+        <v>2.432234458804136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.49493945014209</v>
+        <v>2.511849390024622</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.790789382483706</v>
+        <v>1.795459401769614</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.014154309094727</v>
+        <v>2.004571923138025</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.175031229981706</v>
+        <v>2.176546659441787</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.727118913762685</v>
+        <v>2.718942455502252</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.985843472774059</v>
+        <v>1.992036830693695</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.127285605997555</v>
+        <v>2.134898642861434</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.367645677899746</v>
+        <v>2.355811575394511</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.745000168903754</v>
+        <v>2.753096193386848</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.064571077936475</v>
+        <v>3.09764212414179</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.647644889964894</v>
+        <v>2.663501685810861</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.314044534216107</v>
+        <v>3.266303624354993</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.357823629173367</v>
+        <v>4.417187445794013</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.36306441537638</v>
+        <v>2.34132819403087</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.642073794577177</v>
+        <v>2.603929576271591</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.794576318019807</v>
+        <v>2.820470608759809</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.990034271988707</v>
+        <v>3.964206235112528</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.611456650352124</v>
+        <v>2.622543900110661</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.534193838883317</v>
+        <v>2.52294780330367</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.893555037070303</v>
+        <v>2.866645251856666</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.762598367285469</v>
+        <v>3.818041237108535</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>2.500145783127896</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>2.806916092167182</v>
+        <v>2.806916092167181</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>2.546709851546261</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.488990885884346</v>
+        <v>2.474705189447718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.472324490230836</v>
+        <v>2.504968474563871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.378023941633734</v>
+        <v>2.361133954966592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.724245609167471</v>
+        <v>2.705481736684597</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.028291952664333</v>
+        <v>2.025559129020244</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.269840658586899</v>
+        <v>2.287350491767571</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.287587348311288</v>
+        <v>2.306211710894902</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.563777541146889</v>
+        <v>2.560396297832601</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.340035054628288</v>
+        <v>2.331082102231687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.442452027462509</v>
+        <v>2.439552416660645</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.385793830055048</v>
+        <v>2.400800573515446</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.719563235333752</v>
+        <v>2.735659164194805</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.254563016987776</v>
+        <v>3.22382721821087</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.992356846268935</v>
+        <v>2.997300131215957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.806083286967731</v>
+        <v>2.786396878604636</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.03560645571716</v>
+        <v>3.955030086507339</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.380467173248343</v>
+        <v>2.390295121563728</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.627221055260619</v>
+        <v>2.653088081225899</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.766482135751191</v>
+        <v>2.788921881670293</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.162402832368852</v>
+        <v>3.115872021484142</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.83953389340313</v>
+        <v>2.799608409582469</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.761946355245786</v>
+        <v>2.750439870852743</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.687587016998183</v>
+        <v>2.707375219885739</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>3.431339753346834</v>
+        <v>3.442373374849865</v>
       </c>
     </row>
     <row r="19">
